--- a/test_data/ReadData.xlsx
+++ b/test_data/ReadData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdallahjaber/IdeaProjects/backend_automation_5/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492CE0E6-3AC4-274F-8C11-528372DD9CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E35D92E-226C-0540-9E55-2F40FEFB6360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{D2CB5FEF-8E7B-BA45-889B-4596DE15E4F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Tech Global</t>
   </si>
@@ -56,10 +56,13 @@
     <t>Active</t>
   </si>
   <si>
-    <t>TechGlobal</t>
-  </si>
-  <si>
     <t>DEV</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Tech Solution</t>
   </si>
 </sst>
 </file>
@@ -414,14 +417,17 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -449,13 +455,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
